--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -49,6 +55,15 @@
     <t>南方利淘灵活配置混合C</t>
   </si>
   <si>
+    <t>18.69</t>
+  </si>
+  <si>
+    <t>5.97</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
     <t>90.37</t>
   </si>
   <si>
@@ -59,6 +74,15 @@
   </si>
   <si>
     <t>0.53</t>
+  </si>
+  <si>
+    <t>0.5607</t>
+  </si>
+  <si>
+    <t>0.0316</t>
+  </si>
+  <si>
+    <t>0.0007</t>
   </si>
 </sst>
 </file>
@@ -416,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,64 +462,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519002</t>
-  </si>
-  <si>
-    <t>001183</t>
-  </si>
-  <si>
-    <t>001504</t>
-  </si>
-  <si>
-    <t>华安安信消费混合</t>
-  </si>
-  <si>
-    <t>南方利淘灵活配置混合A</t>
-  </si>
-  <si>
-    <t>南方利淘灵活配置混合C</t>
-  </si>
-  <si>
-    <t>18.69</t>
-  </si>
-  <si>
-    <t>5.97</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>90.37</t>
-  </si>
-  <si>
-    <t>24.50</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.5607</t>
-  </si>
-  <si>
-    <t>0.0316</t>
-  </si>
-  <si>
-    <t>0.0007</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,835 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.75</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.19</v>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1634,13 +1699,743 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001424</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001425</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.41</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.75</v>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.19</v>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2635,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,17 +2647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2666,14 +2687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.529999999999999</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2682,14 +2725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.41</v>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2698,14 +2763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.75</v>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2714,14 +2801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.19</v>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2730,13 +2839,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安安信消费混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5607</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001183</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001504</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -687,22 +649,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>147.21</t>
+          <t>106.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>52.63</t>
+          <t>67.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.3879</t>
+          <t>4.1796</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -725,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.64</t>
+          <t>29.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.73</t>
+          <t>78.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8694</t>
+          <t>0.8723</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004448</t>
+          <t>002409</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时汇智回报灵活配置混合</t>
+          <t>华夏新活力灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>57.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2695</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -791,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>002410</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>华夏新活力灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>57.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2584</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -829,454 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011927</t>
+          <t>011178</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+          <t>博时汇融回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>67.08</t>
+          <t>78.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1610</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>73.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0792</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>62.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011928</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>67.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001518</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家瑞兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001334</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23.28</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011178</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时汇融回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>59.73</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001914</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001503</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.28</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006845</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1351,26 +895,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>142.06</t>
+          <t>107.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.24</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.7565</t>
+          <t>6.2928</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1389,26 +933,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.69</t>
+          <t>39.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.80</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6018</t>
+          <t>1.7000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1417,36 +961,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004448</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时汇智回报灵活配置混合</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54.69</t>
+          <t>84.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2317</t>
+          <t>0.2538</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1455,36 +999,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011927</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>48.62</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1379</t>
+          <t>0.1902</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1493,36 +1037,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011928</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>48.62</t>
+          <t>84.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0821</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1541,26 +1085,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>66.80</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +1917,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2413,26 +1957,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>107.57</t>
+          <t>142.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.02</t>
+          <t>70.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.2928</t>
+          <t>7.7565</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2451,26 +1995,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.26</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.35</t>
+          <t>66.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7000</t>
+          <t>1.6018</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2479,36 +2023,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>004448</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>博时汇智回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>54.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2538</t>
+          <t>0.2317</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2517,36 +2061,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>011927</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>48.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1902</t>
+          <t>0.1379</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2555,36 +2099,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002096</t>
+          <t>011928</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合C</t>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>48.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0821</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2603,26 +2147,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>65.35</t>
+          <t>66.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2657,7 +2201,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2697,22 +2241,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106.35</t>
+          <t>147.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.67</t>
+          <t>52.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.1796</t>
+          <t>5.3879</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2735,26 +2279,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.57</t>
+          <t>40.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.68</t>
+          <t>59.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8723</t>
+          <t>1.8694</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2763,36 +2307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002409</t>
+          <t>004448</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏新活力灵活配置混合A</t>
+          <t>博时汇智回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>57.25</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.2695</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2801,32 +2345,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002410</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏新活力灵活配置混合C</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>57.25</t>
+          <t>73.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.2584</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2839,36 +2383,454 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>011178</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>博时汇融回报一年持有期混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2882,128 +2844,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.09</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.529999999999999</v>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.59</v>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5.09</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>8.529999999999999</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>14.41</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>9.75</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>8.19</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -828,7 +1015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1890,7 +2077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2174,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2838,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603733-仙鹤股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>3.22</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5.09</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>8.529999999999999</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>14.41</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>9.75</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>8.19</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -600,6 +617,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2077,7 +2794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +3078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3025,7 +3742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
